--- a/biology/Médecine/Paul_Malvy/Paul_Malvy.xlsx
+++ b/biology/Médecine/Paul_Malvy/Paul_Malvy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Malvy est un médecin français né le 22 avril 1922 à Melun et mort le 22 novembre 2016 à Saint-Herblain[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Malvy est un médecin français né le 22 avril 1922 à Melun et mort le 22 novembre 2016 à Saint-Herblain.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Docteur en médecine, il est doyen de la faculté de médecine de Nantes (1973-1989), président (administrateur provisoire) de l'Université de Nantes (1985-1988) et de l'Académie nationale de chirurgie (1987).
 </t>
@@ -542,7 +556,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les occlusions post-opératoires tardives par adhérences et brides (1955)</t>
         </is>
@@ -572,7 +588,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier de la Légion d'honneur
  Commandeur de l'ordre national du Mérite
@@ -610,6 +628,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
